--- a/ElementosBasicosEstadistica/Catalogo_sucursal.xlsx
+++ b/ElementosBasicosEstadistica/Catalogo_sucursal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\6IV8_Mendoza_S-nchez_Carlos_Eduardo_AnalisisDeDatos\ElementosBasicosEstadistica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SN3PEPF00017C3C\EXCELCNV\3c692263-0700-46aa-82d2-da8bc851568b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E81B4B-4E89-452E-BF03-7AFC3AAC5D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E51381-17DD-4DEB-870C-215BA013C164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5F8041F-8FF8-471C-8D23-102C28B61658}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{F5F8041F-8FF8-471C-8D23-102C28B61658}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,9 +640,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,7 +680,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -786,7 +786,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,7 +928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,13 +938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37965D6-5378-4E59-A97C-6C7C0297CB2E}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -952,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -960,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -968,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -976,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -984,7 +982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -992,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1040,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1088,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>22</v>
       </c>
@@ -1104,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>37</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>42</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>68</v>
       </c>
@@ -1128,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>97</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>65</v>
       </c>
@@ -1144,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>98</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>36</v>
       </c>
@@ -1166,23 +1164,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="e876b60f-e5a6-415a-b7ea-75f5db1f507f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000F9CEF820D1BF24B903EEB285872572C" ma:contentTypeVersion="1" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e0eae840227a9f83e0641b59a324875c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e876b60f-e5a6-415a-b7ea-75f5db1f507f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca5e7cc1c90394945ff2f4137adfd920" ns2:_="">
     <xsd:import namespace="e876b60f-e5a6-415a-b7ea-75f5db1f507f"/>
@@ -1308,38 +1289,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="e876b60f-e5a6-415a-b7ea-75f5db1f507f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23D29AB4-06BB-45B5-A0F3-3937AE955866}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e876b60f-e5a6-415a-b7ea-75f5db1f507f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAB00AB3-5D5F-489D-8000-7EF14E0A7F69}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2376B3-306C-41D7-8CC6-5C81CA4F578D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E2376B3-306C-41D7-8CC6-5C81CA4F578D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAB00AB3-5D5F-489D-8000-7EF14E0A7F69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e876b60f-e5a6-415a-b7ea-75f5db1f507f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23D29AB4-06BB-45B5-A0F3-3937AE955866}"/>
 </file>